--- a/medicine/Enfance/Jean-Paul_Gisserot/Jean-Paul_Gisserot.xlsx
+++ b/medicine/Enfance/Jean-Paul_Gisserot/Jean-Paul_Gisserot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Paul Gisserot est un auteur (sous le pseudonyme de Jean-Paul Benoît) et éditeur français. Il a créé trois maisons d’éditions ainsi que le festival du Livre de Paris.
 </t>
@@ -511,19 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Paul Gisserot est né le 28 août 1938 à Brest, dans le Finistère[1], dans une famille où l'on cultivait de fortes traditions maritimes. Il a étudié successivement au collège Stanislas de Paris, aux lycées de Lorient et de Brest, et à l'École nationale supérieure d'ingénieurs de constructions aéronautiques (ENSICA), d'où il sort ingénieur. Il est successivement directeur de la collection Jeunesse aux Éditions Spes (1963—1967), publicitaire à l’agence de publicité Yves Alexandre (1963—1965) et directeur commercial des Éditions Alsatia (1968—1974)[2],[3].
-Éditions Ouest-France
-En 1975, dans le cadre de la diversification de ses activités, le quotidien régional Ouest-France crée un département éditions de livres, dont la responsabilité est confiée à Jean-Paul Gisserot[4]. C'est ainsi qu'il fonde les Éditions Ouest-France pour le groupe de presse rennais du homonyme[5].  
-Au terme de quelques mois de fonctionnement, les premiers ouvrages publiés par ce nouveau groupe éditorial comprenait essentiellement de livres à caractère pratique ou touristique, en particulier un guide de Bretagne abondamment illustré et réalisé sous la direction de Michel Renouard. En 1982, ses best-sellers sont une monographie du Mont Saint-Michel (trois cent mille exemplaires en cinq langues vendus en 1982) par Lucien Bély et un ouvrage sur les champignons (plus de cinquante mille exemplaires). Il possède dix-neuf collections qui vont des guides et des ouvrages de nature aux études historiques. Il lance une Histoire de la Bretagne en dix volumes. Six cents auteurs, dont la moitié sont des universitaires, collaborent aux Éditions Ouest-France[6]. Il est aussi à l'origine des albums de Pierre Joubert parus chez Ouest-France.
-Salon du livre de Paris
-En 1980, de nombreuses maisons d’édition subissent une crise des ventes qui les obligent à diminuer progressivement leur production. Dès lors, pour remédier à ce manque d'intérêt des lecteurs et tenter de dynamiser à nouveau les ventes, le Syndicat national de l'édition (SNE) décide de lancer un grand salon du livre dans Paris dès l’année suivante, afin que les parisiens se déplacent en masse pour venir découvrir et acheter de nouveaux livres[7],[8]. C’est ainsi que le Salon du livre de Paris est créé par Jean-Paul Gisserot (du SNE) et Frédéric Ditis (fondateur de J'ai lu). 
-Le 15 septembre 1980, Jean-Paul Gisserot annonce la création du Salon du Livre, avec l’objectif de « présenter l'ensemble des fonds des éditeurs » et d'ouvrir « la plus grande librairie du monde » pendant quelques jours. Le salon se tient pour la première fois du 23 au 27 mai 1981 sous la coupole du Grand Palais. Une remise de 20 % est offerte aux visiteurs qui y achètent un livre pendant le salon. Cette pratique sera interdite dès l'année suivante par la loi relative au prix du livre portée par Jack Lang[9],[10].
-Éditions Sud-Ouest
-En 1988, il fonde les Éditions Sud-Ouest pour le groupe de presse bordelais du même nom[11]. Il y développe notamment des livres scolaires et parascolaires[12]. Il dirigera cette maison jusqu’en 2000[13].
-Éditions Jean-Paul Gisserot
-En 1988 également, il fonde la SA Éditions Jean-Paul Gisserot.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Paul Gisserot est né le 28 août 1938 à Brest, dans le Finistère, dans une famille où l'on cultivait de fortes traditions maritimes. Il a étudié successivement au collège Stanislas de Paris, aux lycées de Lorient et de Brest, et à l'École nationale supérieure d'ingénieurs de constructions aéronautiques (ENSICA), d'où il sort ingénieur. Il est successivement directeur de la collection Jeunesse aux Éditions Spes (1963—1967), publicitaire à l’agence de publicité Yves Alexandre (1963—1965) et directeur commercial des Éditions Alsatia (1968—1974),.
 </t>
         </is>
       </c>
@@ -549,21 +553,173 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Éditions Ouest-France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1975, dans le cadre de la diversification de ses activités, le quotidien régional Ouest-France crée un département éditions de livres, dont la responsabilité est confiée à Jean-Paul Gisserot. C'est ainsi qu'il fonde les Éditions Ouest-France pour le groupe de presse rennais du homonyme.  
+Au terme de quelques mois de fonctionnement, les premiers ouvrages publiés par ce nouveau groupe éditorial comprenait essentiellement de livres à caractère pratique ou touristique, en particulier un guide de Bretagne abondamment illustré et réalisé sous la direction de Michel Renouard. En 1982, ses best-sellers sont une monographie du Mont Saint-Michel (trois cent mille exemplaires en cinq langues vendus en 1982) par Lucien Bély et un ouvrage sur les champignons (plus de cinquante mille exemplaires). Il possède dix-neuf collections qui vont des guides et des ouvrages de nature aux études historiques. Il lance une Histoire de la Bretagne en dix volumes. Six cents auteurs, dont la moitié sont des universitaires, collaborent aux Éditions Ouest-France. Il est aussi à l'origine des albums de Pierre Joubert parus chez Ouest-France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Salon du livre de Paris</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1980, de nombreuses maisons d’édition subissent une crise des ventes qui les obligent à diminuer progressivement leur production. Dès lors, pour remédier à ce manque d'intérêt des lecteurs et tenter de dynamiser à nouveau les ventes, le Syndicat national de l'édition (SNE) décide de lancer un grand salon du livre dans Paris dès l’année suivante, afin que les parisiens se déplacent en masse pour venir découvrir et acheter de nouveaux livres,. C’est ainsi que le Salon du livre de Paris est créé par Jean-Paul Gisserot (du SNE) et Frédéric Ditis (fondateur de J'ai lu). 
+Le 15 septembre 1980, Jean-Paul Gisserot annonce la création du Salon du Livre, avec l’objectif de « présenter l'ensemble des fonds des éditeurs » et d'ouvrir « la plus grande librairie du monde » pendant quelques jours. Le salon se tient pour la première fois du 23 au 27 mai 1981 sous la coupole du Grand Palais. Une remise de 20 % est offerte aux visiteurs qui y achètent un livre pendant le salon. Cette pratique sera interdite dès l'année suivante par la loi relative au prix du livre portée par Jack Lang,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éditions Sud-Ouest</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, il fonde les Éditions Sud-Ouest pour le groupe de presse bordelais du même nom. Il y développe notamment des livres scolaires et parascolaires. Il dirigera cette maison jusqu’en 2000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éditions Jean-Paul Gisserot</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988 également, il fonde la SA Éditions Jean-Paul Gisserot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Gisserot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le pseudonyme de Jean-Paul Benoît, il est l’auteur de nombreux romans pour la jeunesse[5]   
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le pseudonyme de Jean-Paul Benoît, il est l’auteur de nombreux romans pour la jeunesse   
 La Nuit transfigurée  (ill. Michel Gourlier), Éditions Spes, coll. « Jamboree », 1958
 Les Compagnons perdus  (ill. Michel Gourlier), Éditions Spes, coll. « Jamboree », 1960
-Cap au Sud, Éditions Spes, coll. « Jamboree Ainée », 1963, en collaboration avec Alain Arvel[14].
+Cap au Sud, Éditions Spes, coll. « Jamboree Ainée », 1963, en collaboration avec Alain Arvel.
 Le Passager de la nuit  (ill. Pierre Joubert), Éditions Alsatia, coll. « Signe de piste », 1963.
 Destination Pacifique, 1963, en collaboration avec Michel Goissert
 Dany, médecin des nuages  (ill. Pierre Joubert), Éditions Alsatia, coll. « Signe de piste », 1967
 Le jour viendra-t-il, Dany ?  (ill. Francis Bergèse), Éditions Alsatia, coll. « Signe de piste », 1968
 L'Appel du matin  (ill. Pierre Joubert), Éditions Alsatia, coll. « Signe de piste », 1973
-L'un d'eux, le Passager de la nuit, a été un best-seller dans sa catégorie : trente-huit mille exemplaires[5].
+L'un d'eux, le Passager de la nuit, a été un best-seller dans sa catégorie : trente-huit mille exemplaires.
 </t>
         </is>
       </c>
